--- a/keywordautotest/res/testcase/Login.xlsx
+++ b/keywordautotest/res/testcase/Login.xlsx
@@ -8,12 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="3" r:id="rId1"/>
-    <sheet name="001" sheetId="2" r:id="rId2"/>
-    <sheet name="002" sheetId="4" r:id="rId3"/>
+    <sheet name="L001" sheetId="2" r:id="rId2"/>
+    <sheet name="L002" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'001'!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'002'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'L001'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'L002'!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1501,7 +1501,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -1589,7 +1589,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>

--- a/keywordautotest/res/testcase/Login.xlsx
+++ b/keywordautotest/res/testcase/Login.xlsx
@@ -4,16 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="10170" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="10170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="3" r:id="rId1"/>
-    <sheet name="L001" sheetId="2" r:id="rId2"/>
-    <sheet name="L002" sheetId="4" r:id="rId3"/>
+    <sheet name="001_LoginTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'L001'!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'L002'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'001_LoginTest'!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -58,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Go to URL</t>
   </si>
@@ -1499,7 +1497,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
@@ -1578,92 +1576,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="6" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="46.75" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Values!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>